--- a/AutoTest_gitclassroom_tests.xlsx
+++ b/AutoTest_gitclassroom_tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmt/Library/CloudStorage/Dropbox/UCA/Data Structures/source/Stack/Stack_AutoTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelle/Dropbox/UCA/Data Structures/source/Stack/Stack_AutoTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10892990-D4C1-7245-80DA-7E01C7DC184B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BBA0D1-584D-064A-88B1-17EA8BE48F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29340" yWindow="-8320" windowWidth="28800" windowHeight="16580" xr2:uid="{29F2130F-3E6E-6C43-8BD2-2E7492F933ED}"/>
+    <workbookView xWindow="1020" yWindow="600" windowWidth="33600" windowHeight="20500" xr2:uid="{29F2130F-3E6E-6C43-8BD2-2E7492F933ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Classroom" sheetId="1" r:id="rId1"/>
@@ -293,9 +293,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -333,7 +333,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -439,7 +439,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -581,7 +581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -592,7 +592,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,7 +703,7 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -727,7 +727,7 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -739,7 +739,7 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -751,7 +751,7 @@
         <v>28</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -835,7 +835,7 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -847,7 +847,7 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -859,7 +859,7 @@
         <v>26</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -871,7 +871,7 @@
         <v>28</v>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -915,7 +915,7 @@
         <v>38</v>
       </c>
       <c r="E26">
-        <f>SUM(E3:E15)</f>
+        <f>SUM(E3:E25)</f>
         <v>100</v>
       </c>
     </row>

--- a/AutoTest_gitclassroom_tests.xlsx
+++ b/AutoTest_gitclassroom_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelle/Dropbox/UCA/Data Structures/source/Stack/Stack_AutoTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BBA0D1-584D-064A-88B1-17EA8BE48F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9FE347-42A9-484F-881B-F7AF16BBA40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="600" windowWidth="33600" windowHeight="20500" xr2:uid="{29F2130F-3E6E-6C43-8BD2-2E7492F933ED}"/>
   </bookViews>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D968784-9ABC-434B-B612-3087309D1BAB}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/AutoTest_gitclassroom_tests.xlsx
+++ b/AutoTest_gitclassroom_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelle/Dropbox/UCA/Data Structures/source/Stack/Stack_AutoTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9FE347-42A9-484F-881B-F7AF16BBA40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640BE905-9E67-214F-B36E-FDA43AC728C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="600" windowWidth="33600" windowHeight="20500" xr2:uid="{29F2130F-3E6E-6C43-8BD2-2E7492F933ED}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{29F2130F-3E6E-6C43-8BD2-2E7492F933ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Classroom" sheetId="1" r:id="rId1"/>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D968784-9ABC-434B-B612-3087309D1BAB}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,7 +653,7 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -667,7 +667,7 @@
         <v>13</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -703,7 +703,7 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -835,7 +835,7 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">

--- a/AutoTest_gitclassroom_tests.xlsx
+++ b/AutoTest_gitclassroom_tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelle/Dropbox/UCA/Data Structures/source/Stack/Stack_AutoTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmt/Library/CloudStorage/Dropbox/UCA/Data Structures/source/Stack/Stack_AutoTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640BE905-9E67-214F-B36E-FDA43AC728C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D85A03-0CB7-A648-A519-DEF07698269D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{29F2130F-3E6E-6C43-8BD2-2E7492F933ED}"/>
+    <workbookView xWindow="-30240" yWindow="-10220" windowWidth="28920" windowHeight="26300" xr2:uid="{29F2130F-3E6E-6C43-8BD2-2E7492F933ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Classroom" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>AutoTest Setup</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>Queue Copy Constructor</t>
+  </si>
+  <si>
+    <t>Stack SaveRestore</t>
+  </si>
+  <si>
+    <t>Queue SaveRestore</t>
   </si>
 </sst>
 </file>
@@ -293,9 +299,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -333,7 +339,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -439,7 +445,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -581,7 +587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -589,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D968784-9ABC-434B-B612-3087309D1BAB}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -667,7 +673,7 @@
         <v>13</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -703,7 +709,7 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -715,7 +721,7 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -727,7 +733,7 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -792,23 +798,23 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2"/>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2"/>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -816,47 +822,47 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2"/>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2"/>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2"/>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2"/>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -864,35 +870,35 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="2"/>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2"/>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2"/>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -900,22 +906,46 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2"/>
       <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="D26" t="s">
         <v>39</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E26">
-        <f>SUM(E3:E25)</f>
+      <c r="E28">
+        <f>SUM(E3:E27)</f>
         <v>100</v>
       </c>
     </row>
